--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaros\PycharmProjects\DecisionTree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC4E1B-58D8-4B28-8616-1F40B67B0D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,21 +139,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,9 +200,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +234,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,14 +479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:218">
+    <row r="1" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:218">
+    <row r="2" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:218">
+    <row r="3" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:218">
+    <row r="4" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3053,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:218">
+    <row r="5" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3709,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:218">
+    <row r="6" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4365,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:218">
+    <row r="7" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5021,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:218">
+    <row r="8" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5677,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:218">
+    <row r="9" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:218">
+    <row r="10" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6989,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:218">
+    <row r="11" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7645,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:218">
+    <row r="12" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8301,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:218">
+    <row r="13" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8957,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:218">
+    <row r="14" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -9613,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:218">
+    <row r="15" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -10269,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:218">
+    <row r="16" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -10925,1971 +10988,1971 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:218">
-      <c r="A17" t="s">
+    <row r="17" spans="1:218" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>1</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>1</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
-        <v>1</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>1</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>1</v>
-      </c>
-      <c r="BT17">
-        <v>1</v>
-      </c>
-      <c r="BU17">
-        <v>1</v>
-      </c>
-      <c r="BV17">
-        <v>1</v>
-      </c>
-      <c r="BW17">
-        <v>1</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
-        <v>0</v>
-      </c>
-      <c r="BZ17">
-        <v>1</v>
-      </c>
-      <c r="CA17">
-        <v>0</v>
-      </c>
-      <c r="CB17">
-        <v>0</v>
-      </c>
-      <c r="CC17">
-        <v>1</v>
-      </c>
-      <c r="CD17">
-        <v>1</v>
-      </c>
-      <c r="CE17">
-        <v>0</v>
-      </c>
-      <c r="CF17">
-        <v>0</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17">
-        <v>1</v>
-      </c>
-      <c r="CI17">
-        <v>1</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>1</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
-      <c r="CP17">
-        <v>1</v>
-      </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
-      </c>
-      <c r="CS17">
-        <v>0</v>
-      </c>
-      <c r="CT17">
-        <v>0</v>
-      </c>
-      <c r="CU17">
-        <v>1</v>
-      </c>
-      <c r="CV17">
-        <v>0</v>
-      </c>
-      <c r="CW17">
-        <v>1</v>
-      </c>
-      <c r="CX17">
-        <v>0</v>
-      </c>
-      <c r="CY17">
-        <v>0</v>
-      </c>
-      <c r="CZ17">
-        <v>1</v>
-      </c>
-      <c r="DA17">
-        <v>0</v>
-      </c>
-      <c r="DB17">
-        <v>0</v>
-      </c>
-      <c r="DC17">
-        <v>0</v>
-      </c>
-      <c r="DD17">
-        <v>0</v>
-      </c>
-      <c r="DE17">
-        <v>0</v>
-      </c>
-      <c r="DF17">
-        <v>0</v>
-      </c>
-      <c r="DG17">
-        <v>0</v>
-      </c>
-      <c r="DH17">
-        <v>0</v>
-      </c>
-      <c r="DI17">
-        <v>1</v>
-      </c>
-      <c r="DJ17">
-        <v>0</v>
-      </c>
-      <c r="DK17">
-        <v>1</v>
-      </c>
-      <c r="DL17">
-        <v>0</v>
-      </c>
-      <c r="DM17">
-        <v>0</v>
-      </c>
-      <c r="DN17">
-        <v>0</v>
-      </c>
-      <c r="DO17">
-        <v>1</v>
-      </c>
-      <c r="DP17">
-        <v>0</v>
-      </c>
-      <c r="DQ17">
-        <v>0</v>
-      </c>
-      <c r="DR17">
-        <v>1</v>
-      </c>
-      <c r="DS17">
-        <v>0</v>
-      </c>
-      <c r="DT17">
-        <v>1</v>
-      </c>
-      <c r="DU17">
-        <v>0</v>
-      </c>
-      <c r="DV17">
-        <v>0</v>
-      </c>
-      <c r="DW17">
-        <v>0</v>
-      </c>
-      <c r="DX17">
-        <v>1</v>
-      </c>
-      <c r="DY17">
-        <v>0</v>
-      </c>
-      <c r="DZ17">
-        <v>1</v>
-      </c>
-      <c r="EA17">
-        <v>0</v>
-      </c>
-      <c r="EB17">
-        <v>0</v>
-      </c>
-      <c r="EC17">
-        <v>0</v>
-      </c>
-      <c r="ED17">
-        <v>1</v>
-      </c>
-      <c r="EE17">
-        <v>0</v>
-      </c>
-      <c r="EF17">
-        <v>0</v>
-      </c>
-      <c r="EG17">
-        <v>1</v>
-      </c>
-      <c r="EH17">
-        <v>1</v>
-      </c>
-      <c r="EI17">
-        <v>0</v>
-      </c>
-      <c r="EJ17">
-        <v>0</v>
-      </c>
-      <c r="EK17">
-        <v>1</v>
-      </c>
-      <c r="EL17">
-        <v>0</v>
-      </c>
-      <c r="EM17">
-        <v>0</v>
-      </c>
-      <c r="EN17">
-        <v>1</v>
-      </c>
-      <c r="EO17">
-        <v>1</v>
-      </c>
-      <c r="EP17">
-        <v>0</v>
-      </c>
-      <c r="EQ17">
-        <v>0</v>
-      </c>
-      <c r="ER17">
-        <v>0</v>
-      </c>
-      <c r="ES17">
-        <v>1</v>
-      </c>
-      <c r="ET17">
-        <v>0</v>
-      </c>
-      <c r="EU17">
-        <v>1</v>
-      </c>
-      <c r="EV17">
-        <v>0</v>
-      </c>
-      <c r="EW17">
-        <v>0</v>
-      </c>
-      <c r="EX17">
-        <v>0</v>
-      </c>
-      <c r="EY17">
-        <v>1</v>
-      </c>
-      <c r="EZ17">
-        <v>1</v>
-      </c>
-      <c r="FA17">
-        <v>0</v>
-      </c>
-      <c r="FB17">
-        <v>0</v>
-      </c>
-      <c r="FC17">
-        <v>0</v>
-      </c>
-      <c r="FD17">
-        <v>0</v>
-      </c>
-      <c r="FE17">
-        <v>0</v>
-      </c>
-      <c r="FF17">
-        <v>1</v>
-      </c>
-      <c r="FG17">
-        <v>0</v>
-      </c>
-      <c r="FH17">
-        <v>0</v>
-      </c>
-      <c r="FI17">
-        <v>0</v>
-      </c>
-      <c r="FJ17">
-        <v>0</v>
-      </c>
-      <c r="FK17">
-        <v>0</v>
-      </c>
-      <c r="FL17">
-        <v>0</v>
-      </c>
-      <c r="FM17">
-        <v>0</v>
-      </c>
-      <c r="FN17">
-        <v>1</v>
-      </c>
-      <c r="FO17">
-        <v>1</v>
-      </c>
-      <c r="FP17">
-        <v>0</v>
-      </c>
-      <c r="FQ17">
-        <v>0</v>
-      </c>
-      <c r="FR17">
-        <v>0</v>
-      </c>
-      <c r="FS17">
-        <v>0</v>
-      </c>
-      <c r="FT17">
-        <v>1</v>
-      </c>
-      <c r="FU17">
-        <v>1</v>
-      </c>
-      <c r="FV17">
-        <v>0</v>
-      </c>
-      <c r="FW17">
-        <v>0</v>
-      </c>
-      <c r="FX17">
-        <v>0</v>
-      </c>
-      <c r="FY17">
-        <v>1</v>
-      </c>
-      <c r="FZ17">
-        <v>0</v>
-      </c>
-      <c r="GA17">
-        <v>0</v>
-      </c>
-      <c r="GB17">
-        <v>0</v>
-      </c>
-      <c r="GC17">
-        <v>0</v>
-      </c>
-      <c r="GD17">
-        <v>1</v>
-      </c>
-      <c r="GE17">
-        <v>0</v>
-      </c>
-      <c r="GF17">
-        <v>1</v>
-      </c>
-      <c r="GG17">
-        <v>0</v>
-      </c>
-      <c r="GH17">
-        <v>0</v>
-      </c>
-      <c r="GI17">
-        <v>0</v>
-      </c>
-      <c r="GJ17">
-        <v>1</v>
-      </c>
-      <c r="GK17">
-        <v>0</v>
-      </c>
-      <c r="GL17">
-        <v>0</v>
-      </c>
-      <c r="GM17">
-        <v>1</v>
-      </c>
-      <c r="GN17">
-        <v>0</v>
-      </c>
-      <c r="GO17">
-        <v>1</v>
-      </c>
-      <c r="GP17">
-        <v>1</v>
-      </c>
-      <c r="GQ17">
-        <v>0</v>
-      </c>
-      <c r="GR17">
-        <v>0</v>
-      </c>
-      <c r="GS17">
-        <v>0</v>
-      </c>
-      <c r="GT17">
-        <v>0</v>
-      </c>
-      <c r="GU17">
-        <v>0</v>
-      </c>
-      <c r="GV17">
-        <v>1</v>
-      </c>
-      <c r="GW17">
-        <v>1</v>
-      </c>
-      <c r="GX17">
-        <v>0</v>
-      </c>
-      <c r="GY17">
-        <v>0</v>
-      </c>
-      <c r="GZ17">
-        <v>0</v>
-      </c>
-      <c r="HA17">
-        <v>0</v>
-      </c>
-      <c r="HB17">
-        <v>0</v>
-      </c>
-      <c r="HC17">
-        <v>0</v>
-      </c>
-      <c r="HD17">
-        <v>0</v>
-      </c>
-      <c r="HE17">
-        <v>0</v>
-      </c>
-      <c r="HF17">
-        <v>0</v>
-      </c>
-      <c r="HG17">
-        <v>0</v>
-      </c>
-      <c r="HH17">
-        <v>1</v>
-      </c>
-      <c r="HI17">
-        <v>0</v>
-      </c>
-      <c r="HJ17">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="ED17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="ER17" s="1">
+        <v>1</v>
+      </c>
+      <c r="ES17" s="1">
+        <v>1</v>
+      </c>
+      <c r="ET17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EW17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EX17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EY17" s="1">
+        <v>1</v>
+      </c>
+      <c r="EZ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FW17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FX17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FY17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FZ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GW17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GX17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GY17" s="1">
+        <v>1</v>
+      </c>
+      <c r="GZ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HJ17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:218">
-      <c r="A18" t="s">
+    <row r="18" spans="1:218" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>1</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>1</v>
-      </c>
-      <c r="BK18">
-        <v>1</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>1</v>
-      </c>
-      <c r="BY18">
-        <v>0</v>
-      </c>
-      <c r="BZ18">
-        <v>0</v>
-      </c>
-      <c r="CA18">
-        <v>1</v>
-      </c>
-      <c r="CB18">
-        <v>1</v>
-      </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
-      <c r="CE18">
-        <v>0</v>
-      </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
-        <v>1</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
-      </c>
-      <c r="CK18">
-        <v>0</v>
-      </c>
-      <c r="CL18">
-        <v>1</v>
-      </c>
-      <c r="CM18">
-        <v>0</v>
-      </c>
-      <c r="CN18">
-        <v>0</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
-      </c>
-      <c r="CP18">
-        <v>0</v>
-      </c>
-      <c r="CQ18">
-        <v>0</v>
-      </c>
-      <c r="CR18">
-        <v>1</v>
-      </c>
-      <c r="CS18">
-        <v>1</v>
-      </c>
-      <c r="CT18">
-        <v>1</v>
-      </c>
-      <c r="CU18">
-        <v>0</v>
-      </c>
-      <c r="CV18">
-        <v>1</v>
-      </c>
-      <c r="CW18">
-        <v>0</v>
-      </c>
-      <c r="CX18">
-        <v>0</v>
-      </c>
-      <c r="CY18">
-        <v>1</v>
-      </c>
-      <c r="CZ18">
-        <v>0</v>
-      </c>
-      <c r="DA18">
-        <v>1</v>
-      </c>
-      <c r="DB18">
-        <v>1</v>
-      </c>
-      <c r="DC18">
-        <v>1</v>
-      </c>
-      <c r="DD18">
-        <v>1</v>
-      </c>
-      <c r="DE18">
-        <v>0</v>
-      </c>
-      <c r="DF18">
-        <v>1</v>
-      </c>
-      <c r="DG18">
-        <v>0</v>
-      </c>
-      <c r="DH18">
-        <v>0</v>
-      </c>
-      <c r="DI18">
-        <v>0</v>
-      </c>
-      <c r="DJ18">
-        <v>0</v>
-      </c>
-      <c r="DK18">
-        <v>0</v>
-      </c>
-      <c r="DL18">
-        <v>1</v>
-      </c>
-      <c r="DM18">
-        <v>0</v>
-      </c>
-      <c r="DN18">
-        <v>0</v>
-      </c>
-      <c r="DO18">
-        <v>0</v>
-      </c>
-      <c r="DP18">
-        <v>0</v>
-      </c>
-      <c r="DQ18">
-        <v>1</v>
-      </c>
-      <c r="DR18">
-        <v>0</v>
-      </c>
-      <c r="DS18">
-        <v>1</v>
-      </c>
-      <c r="DT18">
-        <v>0</v>
-      </c>
-      <c r="DU18">
-        <v>1</v>
-      </c>
-      <c r="DV18">
-        <v>1</v>
-      </c>
-      <c r="DW18">
-        <v>0</v>
-      </c>
-      <c r="DX18">
-        <v>0</v>
-      </c>
-      <c r="DY18">
-        <v>1</v>
-      </c>
-      <c r="DZ18">
-        <v>0</v>
-      </c>
-      <c r="EA18">
-        <v>1</v>
-      </c>
-      <c r="EB18">
-        <v>0</v>
-      </c>
-      <c r="EC18">
-        <v>0</v>
-      </c>
-      <c r="ED18">
-        <v>0</v>
-      </c>
-      <c r="EE18">
-        <v>0</v>
-      </c>
-      <c r="EF18">
-        <v>1</v>
-      </c>
-      <c r="EG18">
-        <v>0</v>
-      </c>
-      <c r="EH18">
-        <v>0</v>
-      </c>
-      <c r="EI18">
-        <v>1</v>
-      </c>
-      <c r="EJ18">
-        <v>1</v>
-      </c>
-      <c r="EK18">
-        <v>0</v>
-      </c>
-      <c r="EL18">
-        <v>1</v>
-      </c>
-      <c r="EM18">
-        <v>0</v>
-      </c>
-      <c r="EN18">
-        <v>0</v>
-      </c>
-      <c r="EO18">
-        <v>0</v>
-      </c>
-      <c r="EP18">
-        <v>1</v>
-      </c>
-      <c r="EQ18">
-        <v>1</v>
-      </c>
-      <c r="ER18">
-        <v>1</v>
-      </c>
-      <c r="ES18">
-        <v>0</v>
-      </c>
-      <c r="ET18">
-        <v>1</v>
-      </c>
-      <c r="EU18">
-        <v>0</v>
-      </c>
-      <c r="EV18">
-        <v>0</v>
-      </c>
-      <c r="EW18">
-        <v>1</v>
-      </c>
-      <c r="EX18">
-        <v>0</v>
-      </c>
-      <c r="EY18">
-        <v>0</v>
-      </c>
-      <c r="EZ18">
-        <v>0</v>
-      </c>
-      <c r="FA18">
-        <v>0</v>
-      </c>
-      <c r="FB18">
-        <v>0</v>
-      </c>
-      <c r="FC18">
-        <v>0</v>
-      </c>
-      <c r="FD18">
-        <v>1</v>
-      </c>
-      <c r="FE18">
-        <v>1</v>
-      </c>
-      <c r="FF18">
-        <v>0</v>
-      </c>
-      <c r="FG18">
-        <v>0</v>
-      </c>
-      <c r="FH18">
-        <v>0</v>
-      </c>
-      <c r="FI18">
-        <v>1</v>
-      </c>
-      <c r="FJ18">
-        <v>0</v>
-      </c>
-      <c r="FK18">
-        <v>0</v>
-      </c>
-      <c r="FL18">
-        <v>0</v>
-      </c>
-      <c r="FM18">
-        <v>1</v>
-      </c>
-      <c r="FN18">
-        <v>0</v>
-      </c>
-      <c r="FO18">
-        <v>0</v>
-      </c>
-      <c r="FP18">
-        <v>0</v>
-      </c>
-      <c r="FQ18">
-        <v>0</v>
-      </c>
-      <c r="FR18">
-        <v>0</v>
-      </c>
-      <c r="FS18">
-        <v>1</v>
-      </c>
-      <c r="FT18">
-        <v>0</v>
-      </c>
-      <c r="FU18">
-        <v>0</v>
-      </c>
-      <c r="FV18">
-        <v>0</v>
-      </c>
-      <c r="FW18">
-        <v>0</v>
-      </c>
-      <c r="FX18">
-        <v>1</v>
-      </c>
-      <c r="FY18">
-        <v>0</v>
-      </c>
-      <c r="FZ18">
-        <v>0</v>
-      </c>
-      <c r="GA18">
-        <v>1</v>
-      </c>
-      <c r="GB18">
-        <v>1</v>
-      </c>
-      <c r="GC18">
-        <v>0</v>
-      </c>
-      <c r="GD18">
-        <v>0</v>
-      </c>
-      <c r="GE18">
-        <v>1</v>
-      </c>
-      <c r="GF18">
-        <v>0</v>
-      </c>
-      <c r="GG18">
-        <v>0</v>
-      </c>
-      <c r="GH18">
-        <v>0</v>
-      </c>
-      <c r="GI18">
-        <v>0</v>
-      </c>
-      <c r="GJ18">
-        <v>0</v>
-      </c>
-      <c r="GK18">
-        <v>0</v>
-      </c>
-      <c r="GL18">
-        <v>0</v>
-      </c>
-      <c r="GM18">
-        <v>0</v>
-      </c>
-      <c r="GN18">
-        <v>1</v>
-      </c>
-      <c r="GO18">
-        <v>0</v>
-      </c>
-      <c r="GP18">
-        <v>0</v>
-      </c>
-      <c r="GQ18">
-        <v>0</v>
-      </c>
-      <c r="GR18">
-        <v>1</v>
-      </c>
-      <c r="GS18">
-        <v>0</v>
-      </c>
-      <c r="GT18">
-        <v>1</v>
-      </c>
-      <c r="GU18">
-        <v>1</v>
-      </c>
-      <c r="GV18">
-        <v>0</v>
-      </c>
-      <c r="GW18">
-        <v>0</v>
-      </c>
-      <c r="GX18">
-        <v>1</v>
-      </c>
-      <c r="GY18">
-        <v>0</v>
-      </c>
-      <c r="GZ18">
-        <v>0</v>
-      </c>
-      <c r="HA18">
-        <v>1</v>
-      </c>
-      <c r="HB18">
-        <v>0</v>
-      </c>
-      <c r="HC18">
-        <v>0</v>
-      </c>
-      <c r="HD18">
-        <v>1</v>
-      </c>
-      <c r="HE18">
-        <v>1</v>
-      </c>
-      <c r="HF18">
-        <v>1</v>
-      </c>
-      <c r="HG18">
-        <v>0</v>
-      </c>
-      <c r="HH18">
-        <v>0</v>
-      </c>
-      <c r="HI18">
-        <v>0</v>
-      </c>
-      <c r="HJ18">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER18" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES18" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="GZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="HJ18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:218">
-      <c r="A19" t="s">
+    <row r="19" spans="1:218" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19">
-        <v>1</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>1</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>1</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>1</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19">
-        <v>1</v>
-      </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19">
-        <v>0</v>
-      </c>
-      <c r="CE19">
-        <v>1</v>
-      </c>
-      <c r="CF19">
-        <v>1</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>0</v>
-      </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
-      <c r="CJ19">
-        <v>1</v>
-      </c>
-      <c r="CK19">
-        <v>1</v>
-      </c>
-      <c r="CL19">
-        <v>0</v>
-      </c>
-      <c r="CM19">
-        <v>0</v>
-      </c>
-      <c r="CN19">
-        <v>1</v>
-      </c>
-      <c r="CO19">
-        <v>1</v>
-      </c>
-      <c r="CP19">
-        <v>0</v>
-      </c>
-      <c r="CQ19">
-        <v>1</v>
-      </c>
-      <c r="CR19">
-        <v>0</v>
-      </c>
-      <c r="CS19">
-        <v>0</v>
-      </c>
-      <c r="CT19">
-        <v>0</v>
-      </c>
-      <c r="CU19">
-        <v>0</v>
-      </c>
-      <c r="CV19">
-        <v>0</v>
-      </c>
-      <c r="CW19">
-        <v>0</v>
-      </c>
-      <c r="CX19">
-        <v>1</v>
-      </c>
-      <c r="CY19">
-        <v>0</v>
-      </c>
-      <c r="CZ19">
-        <v>0</v>
-      </c>
-      <c r="DA19">
-        <v>0</v>
-      </c>
-      <c r="DB19">
-        <v>0</v>
-      </c>
-      <c r="DC19">
-        <v>0</v>
-      </c>
-      <c r="DD19">
-        <v>0</v>
-      </c>
-      <c r="DE19">
-        <v>1</v>
-      </c>
-      <c r="DF19">
-        <v>0</v>
-      </c>
-      <c r="DG19">
-        <v>1</v>
-      </c>
-      <c r="DH19">
-        <v>1</v>
-      </c>
-      <c r="DI19">
-        <v>0</v>
-      </c>
-      <c r="DJ19">
-        <v>1</v>
-      </c>
-      <c r="DK19">
-        <v>0</v>
-      </c>
-      <c r="DL19">
-        <v>0</v>
-      </c>
-      <c r="DM19">
-        <v>1</v>
-      </c>
-      <c r="DN19">
-        <v>1</v>
-      </c>
-      <c r="DO19">
-        <v>0</v>
-      </c>
-      <c r="DP19">
-        <v>1</v>
-      </c>
-      <c r="DQ19">
-        <v>0</v>
-      </c>
-      <c r="DR19">
-        <v>0</v>
-      </c>
-      <c r="DS19">
-        <v>0</v>
-      </c>
-      <c r="DT19">
-        <v>0</v>
-      </c>
-      <c r="DU19">
-        <v>0</v>
-      </c>
-      <c r="DV19">
-        <v>0</v>
-      </c>
-      <c r="DW19">
-        <v>1</v>
-      </c>
-      <c r="DX19">
-        <v>0</v>
-      </c>
-      <c r="DY19">
-        <v>0</v>
-      </c>
-      <c r="DZ19">
-        <v>0</v>
-      </c>
-      <c r="EA19">
-        <v>0</v>
-      </c>
-      <c r="EB19">
-        <v>1</v>
-      </c>
-      <c r="EC19">
-        <v>1</v>
-      </c>
-      <c r="ED19">
-        <v>0</v>
-      </c>
-      <c r="EE19">
-        <v>1</v>
-      </c>
-      <c r="EF19">
-        <v>0</v>
-      </c>
-      <c r="EG19">
-        <v>0</v>
-      </c>
-      <c r="EH19">
-        <v>0</v>
-      </c>
-      <c r="EI19">
-        <v>0</v>
-      </c>
-      <c r="EJ19">
-        <v>0</v>
-      </c>
-      <c r="EK19">
-        <v>0</v>
-      </c>
-      <c r="EL19">
-        <v>0</v>
-      </c>
-      <c r="EM19">
-        <v>1</v>
-      </c>
-      <c r="EN19">
-        <v>0</v>
-      </c>
-      <c r="EO19">
-        <v>0</v>
-      </c>
-      <c r="EP19">
-        <v>0</v>
-      </c>
-      <c r="EQ19">
-        <v>0</v>
-      </c>
-      <c r="ER19">
-        <v>0</v>
-      </c>
-      <c r="ES19">
-        <v>0</v>
-      </c>
-      <c r="ET19">
-        <v>0</v>
-      </c>
-      <c r="EU19">
-        <v>0</v>
-      </c>
-      <c r="EV19">
-        <v>1</v>
-      </c>
-      <c r="EW19">
-        <v>0</v>
-      </c>
-      <c r="EX19">
-        <v>1</v>
-      </c>
-      <c r="EY19">
-        <v>0</v>
-      </c>
-      <c r="EZ19">
-        <v>0</v>
-      </c>
-      <c r="FA19">
-        <v>1</v>
-      </c>
-      <c r="FB19">
-        <v>1</v>
-      </c>
-      <c r="FC19">
-        <v>1</v>
-      </c>
-      <c r="FD19">
-        <v>0</v>
-      </c>
-      <c r="FE19">
-        <v>0</v>
-      </c>
-      <c r="FF19">
-        <v>0</v>
-      </c>
-      <c r="FG19">
-        <v>1</v>
-      </c>
-      <c r="FH19">
-        <v>1</v>
-      </c>
-      <c r="FI19">
-        <v>0</v>
-      </c>
-      <c r="FJ19">
-        <v>1</v>
-      </c>
-      <c r="FK19">
-        <v>1</v>
-      </c>
-      <c r="FL19">
-        <v>1</v>
-      </c>
-      <c r="FM19">
-        <v>0</v>
-      </c>
-      <c r="FN19">
-        <v>0</v>
-      </c>
-      <c r="FO19">
-        <v>0</v>
-      </c>
-      <c r="FP19">
-        <v>1</v>
-      </c>
-      <c r="FQ19">
-        <v>1</v>
-      </c>
-      <c r="FR19">
-        <v>1</v>
-      </c>
-      <c r="FS19">
-        <v>0</v>
-      </c>
-      <c r="FT19">
-        <v>0</v>
-      </c>
-      <c r="FU19">
-        <v>0</v>
-      </c>
-      <c r="FV19">
-        <v>1</v>
-      </c>
-      <c r="FW19">
-        <v>1</v>
-      </c>
-      <c r="FX19">
-        <v>0</v>
-      </c>
-      <c r="FY19">
-        <v>0</v>
-      </c>
-      <c r="FZ19">
-        <v>1</v>
-      </c>
-      <c r="GA19">
-        <v>0</v>
-      </c>
-      <c r="GB19">
-        <v>0</v>
-      </c>
-      <c r="GC19">
-        <v>1</v>
-      </c>
-      <c r="GD19">
-        <v>0</v>
-      </c>
-      <c r="GE19">
-        <v>0</v>
-      </c>
-      <c r="GF19">
-        <v>0</v>
-      </c>
-      <c r="GG19">
-        <v>1</v>
-      </c>
-      <c r="GH19">
-        <v>1</v>
-      </c>
-      <c r="GI19">
-        <v>1</v>
-      </c>
-      <c r="GJ19">
-        <v>0</v>
-      </c>
-      <c r="GK19">
-        <v>1</v>
-      </c>
-      <c r="GL19">
-        <v>1</v>
-      </c>
-      <c r="GM19">
-        <v>0</v>
-      </c>
-      <c r="GN19">
-        <v>0</v>
-      </c>
-      <c r="GO19">
-        <v>0</v>
-      </c>
-      <c r="GP19">
-        <v>0</v>
-      </c>
-      <c r="GQ19">
-        <v>1</v>
-      </c>
-      <c r="GR19">
-        <v>0</v>
-      </c>
-      <c r="GS19">
-        <v>1</v>
-      </c>
-      <c r="GT19">
-        <v>0</v>
-      </c>
-      <c r="GU19">
-        <v>0</v>
-      </c>
-      <c r="GV19">
-        <v>0</v>
-      </c>
-      <c r="GW19">
-        <v>0</v>
-      </c>
-      <c r="GX19">
-        <v>0</v>
-      </c>
-      <c r="GY19">
-        <v>1</v>
-      </c>
-      <c r="GZ19">
-        <v>1</v>
-      </c>
-      <c r="HA19">
-        <v>0</v>
-      </c>
-      <c r="HB19">
-        <v>1</v>
-      </c>
-      <c r="HC19">
-        <v>1</v>
-      </c>
-      <c r="HD19">
-        <v>0</v>
-      </c>
-      <c r="HE19">
-        <v>0</v>
-      </c>
-      <c r="HF19">
-        <v>0</v>
-      </c>
-      <c r="HG19">
-        <v>1</v>
-      </c>
-      <c r="HH19">
-        <v>0</v>
-      </c>
-      <c r="HI19">
-        <v>1</v>
-      </c>
-      <c r="HJ19">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER19" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES19" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="GZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="HJ19" s="1">
         <v>0</v>
       </c>
     </row>
